--- a/test/resources/AutoCalc_Soccer_EventLog.xlsx
+++ b/test/resources/AutoCalc_Soccer_EventLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="18120" windowHeight="16060" activeTab="4"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="18120" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EventType" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="105">
   <si>
     <t>Half 1</t>
   </si>
@@ -235,12 +235,6 @@
   </si>
   <si>
     <t>Head</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>sec</t>
   </si>
   <si>
     <t>Standart</t>
@@ -1047,7 +1041,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1072,16 +1066,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1092,7 +1086,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -1106,7 +1100,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1120,7 +1114,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>57</v>
@@ -1134,7 +1128,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>58</v>
@@ -1148,7 +1142,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>59</v>
@@ -1162,7 +1156,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>60</v>
@@ -1176,10 +1170,10 @@
         <v>30</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1190,7 +1184,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>40</v>
@@ -1204,7 +1198,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
@@ -1218,10 +1212,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1232,7 +1226,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>61</v>
@@ -1246,10 +1240,10 @@
         <v>30</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1">
@@ -1260,18 +1254,18 @@
         <v>30</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickTop="1">
       <c r="B15" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>19</v>
@@ -1279,10 +1273,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>20</v>
@@ -1290,10 +1284,10 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>57</v>
@@ -1301,10 +1295,10 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>58</v>
@@ -1312,10 +1306,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>59</v>
@@ -1323,10 +1317,10 @@
     </row>
     <row r="20" spans="2:4" ht="15" thickBot="1">
       <c r="B20" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>60</v>
@@ -1337,7 +1331,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>19</v>
@@ -1348,7 +1342,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>20</v>
@@ -1359,7 +1353,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>57</v>
@@ -1370,7 +1364,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>58</v>
@@ -1381,7 +1375,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>59</v>
@@ -1392,7 +1386,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>60</v>
@@ -1403,7 +1397,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>19</v>
@@ -1414,7 +1408,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>20</v>
@@ -1425,7 +1419,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>57</v>
@@ -1436,7 +1430,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>58</v>
@@ -1447,7 +1441,7 @@
         <v>40</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>59</v>
@@ -1458,7 +1452,7 @@
         <v>40</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>60</v>
@@ -1469,7 +1463,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>19</v>
@@ -1480,7 +1474,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>20</v>
@@ -1491,7 +1485,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>57</v>
@@ -1502,7 +1496,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>58</v>
@@ -1513,7 +1507,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>59</v>
@@ -1524,7 +1518,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>60</v>
@@ -1535,10 +1529,10 @@
         <v>16</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" thickTop="1">
@@ -1546,10 +1540,10 @@
         <v>57</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1557,10 +1551,10 @@
         <v>57</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1568,10 +1562,10 @@
         <v>58</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1582,10 +1576,10 @@
         <v>58</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1596,10 +1590,10 @@
         <v>59</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1610,10 +1604,10 @@
         <v>59</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1624,10 +1618,10 @@
         <v>60</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1635,87 +1629,87 @@
         <v>60</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="B49" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="B50" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="B51" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="B52" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="B53" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="B54" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1723,13 +1717,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1746,66 +1740,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="A7:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
-    <col min="3" max="14" width="16.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="12" width="16.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="E1" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="34"/>
+        <v>99</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
       <c r="P1" s="25"/>
       <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1813,585 +1799,483 @@
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="25">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24">
-        <v>0</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>97</v>
-      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="34"/>
+      <c r="G3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24">
-        <v>0</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>75</v>
-      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="24">
-        <v>0</v>
-      </c>
-      <c r="C5" s="25" t="s">
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>75</v>
-      </c>
+      <c r="G5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="1">
-        <v>12</v>
-      </c>
-      <c r="B6" s="24">
-        <v>32</v>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="1">
-        <v>26</v>
-      </c>
-      <c r="B7" s="24">
-        <v>55</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="1">
-        <v>27</v>
-      </c>
-      <c r="B8" s="24">
-        <v>23</v>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="1">
-        <v>30</v>
-      </c>
-      <c r="B9" s="24">
-        <v>44</v>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="1">
-        <v>33</v>
-      </c>
-      <c r="B10" s="24">
-        <v>23</v>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="1">
-        <v>45</v>
-      </c>
-      <c r="B11" s="24">
-        <v>0</v>
-      </c>
-      <c r="C11" s="25" t="s">
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="24" t="s">
-        <v>76</v>
-      </c>
+      <c r="G11" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="1">
-        <v>46</v>
-      </c>
-      <c r="B12" s="24">
-        <v>77</v>
-      </c>
-      <c r="C12" s="25" t="s">
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>75</v>
-      </c>
+      <c r="G12" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="1">
-        <v>51</v>
-      </c>
-      <c r="B13" s="24">
-        <v>11</v>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="1">
-        <v>52</v>
-      </c>
-      <c r="B14" s="24">
-        <v>1</v>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="1">
-        <v>62</v>
-      </c>
-      <c r="B15" s="24">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="1">
-        <v>62</v>
-      </c>
-      <c r="B16" s="24">
-        <v>11</v>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="24"/>
+        <v>63</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>91</v>
-      </c>
-      <c r="B17" s="24">
-        <v>32</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>76</v>
-      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>92</v>
-      </c>
-      <c r="B18" s="24">
-        <v>0</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="34"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>92</v>
-      </c>
-      <c r="B19" s="24">
-        <v>0</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>104</v>
-      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="24" t="s">
-        <v>76</v>
-      </c>
+      <c r="G19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="34"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:13">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:13">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:13">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:13">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15">
+    </row>
+    <row r="25" spans="1:13">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15">
+    </row>
+    <row r="26" spans="1:13">
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15">
+    </row>
+    <row r="27" spans="1:13">
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15">
+    </row>
+    <row r="28" spans="1:13">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15">
+    </row>
+    <row r="29" spans="1:13">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15">
+    </row>
+    <row r="30" spans="1:13">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15">
+    </row>
+    <row r="31" spans="1:13">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15">
+    </row>
+    <row r="32" spans="1:13">
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="5:14">
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
@@ -2400,10 +2284,10 @@
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-    </row>
-    <row r="34" spans="5:14">
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
@@ -2412,10 +2296,10 @@
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-    </row>
-    <row r="35" spans="5:14">
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
@@ -2424,10 +2308,10 @@
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-    </row>
-    <row r="36" spans="5:14">
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
@@ -2436,10 +2320,10 @@
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-    </row>
-    <row r="37" spans="5:14">
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
@@ -2448,10 +2332,10 @@
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-    </row>
-    <row r="38" spans="5:14">
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
@@ -2460,10 +2344,10 @@
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-    </row>
-    <row r="39" spans="5:14">
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
@@ -2472,10 +2356,10 @@
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-    </row>
-    <row r="40" spans="5:14">
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
@@ -2484,10 +2368,10 @@
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-    </row>
-    <row r="41" spans="5:14">
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
@@ -2496,10 +2380,10 @@
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-    </row>
-    <row r="42" spans="5:14">
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
@@ -2508,10 +2392,10 @@
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-    </row>
-    <row r="43" spans="5:14">
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
@@ -2520,10 +2404,10 @@
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-    </row>
-    <row r="44" spans="5:14">
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
@@ -2532,10 +2416,10 @@
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-    </row>
-    <row r="45" spans="5:14">
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
@@ -2544,10 +2428,10 @@
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-    </row>
-    <row r="46" spans="5:14">
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
@@ -2556,10 +2440,10 @@
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-    </row>
-    <row r="47" spans="5:14">
+    </row>
+    <row r="47" spans="3:12">
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
@@ -2568,10 +2452,10 @@
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-    </row>
-    <row r="48" spans="5:14">
+    </row>
+    <row r="48" spans="3:12">
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
@@ -2580,10 +2464,10 @@
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-    </row>
-    <row r="49" spans="5:14">
+    </row>
+    <row r="49" spans="3:12">
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
@@ -2592,10 +2476,10 @@
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-    </row>
-    <row r="50" spans="5:14">
+    </row>
+    <row r="50" spans="3:12">
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
@@ -2604,10 +2488,10 @@
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-    </row>
-    <row r="51" spans="5:14">
+    </row>
+    <row r="51" spans="3:12">
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
@@ -2616,10 +2500,10 @@
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-    </row>
-    <row r="52" spans="5:14">
+    </row>
+    <row r="52" spans="3:12">
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
@@ -2628,10 +2512,10 @@
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-    </row>
-    <row r="53" spans="5:14">
+    </row>
+    <row r="53" spans="3:12">
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
@@ -2640,10 +2524,10 @@
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-    </row>
-    <row r="54" spans="5:14">
+    </row>
+    <row r="54" spans="3:12">
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
@@ -2652,10 +2536,10 @@
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-    </row>
-    <row r="55" spans="5:14">
+    </row>
+    <row r="55" spans="3:12">
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
@@ -2664,10 +2548,10 @@
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-    </row>
-    <row r="57" spans="5:14">
+    </row>
+    <row r="57" spans="3:12">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
@@ -2675,10 +2559,10 @@
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-    </row>
-    <row r="58" spans="5:14">
+    </row>
+    <row r="58" spans="3:12">
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
@@ -2687,10 +2571,10 @@
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-    </row>
-    <row r="59" spans="5:14">
+    </row>
+    <row r="59" spans="3:12">
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
@@ -2699,10 +2583,10 @@
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-    </row>
-    <row r="60" spans="5:14">
+    </row>
+    <row r="60" spans="3:12">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
@@ -2710,10 +2594,10 @@
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-    </row>
-    <row r="61" spans="5:14">
+    </row>
+    <row r="61" spans="3:12">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
       <c r="F61" s="25"/>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -2721,10 +2605,10 @@
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-    </row>
-    <row r="62" spans="5:14">
+    </row>
+    <row r="62" spans="3:12">
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
       <c r="F62" s="25"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -2732,10 +2616,10 @@
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-    </row>
-    <row r="63" spans="5:14">
+    </row>
+    <row r="63" spans="3:12">
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
       <c r="F63" s="25"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
@@ -2743,10 +2627,10 @@
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-    </row>
-    <row r="64" spans="5:14">
+    </row>
+    <row r="64" spans="3:12">
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
       <c r="F64" s="25"/>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
@@ -2754,10 +2638,10 @@
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-    </row>
-    <row r="65" spans="6:14">
+    </row>
+    <row r="65" spans="4:12">
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
       <c r="F65" s="25"/>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
@@ -2765,10 +2649,10 @@
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-    </row>
-    <row r="66" spans="6:14">
+    </row>
+    <row r="66" spans="4:12">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
       <c r="F66" s="25"/>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
@@ -2776,10 +2660,10 @@
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-    </row>
-    <row r="67" spans="6:14">
+    </row>
+    <row r="67" spans="4:12">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
@@ -2787,10 +2671,10 @@
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-    </row>
-    <row r="68" spans="6:14">
+    </row>
+    <row r="68" spans="4:12">
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="25"/>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
@@ -2798,13 +2682,8 @@
       <c r="J68" s="25"/>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
     </row>
   </sheetData>
-  <sortState ref="A2:P64">
-    <sortCondition ref="A1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -2831,10 +2710,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2853,10 +2732,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2">
-        <f>COUNTIFS(EventLog!C:C,"Goal")</f>
+        <f>COUNTIFS(EventLog!A:A,"Goal")</f>
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
@@ -2867,7 +2746,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <f>COUNTIFS(EventLog!C:C,"Goal",EventLog!D:D,"Team2")</f>
+        <f>COUNTIFS(EventLog!A:A,"Goal",EventLog!B:B,"Team2")</f>
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
@@ -2878,7 +2757,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2">
-        <f>COUNTIFS(EventLog!C:C,"Goal",EventLog!D:D,"Team1")</f>
+        <f>COUNTIFS(EventLog!A:A,"Goal",EventLog!B:B,"Team1")</f>
         <v>2</v>
       </c>
       <c r="C6" s="2"/>
@@ -2892,10 +2771,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2">
-        <f>COUNTIFS(EventLog!C:C,"YellowCard")</f>
+        <f>COUNTIFS(EventLog!A:A,"YellowCard")</f>
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
@@ -2903,10 +2782,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2">
-        <f>COUNTIFS(EventLog!C:C,"Corner")</f>
+        <f>COUNTIFS(EventLog!A:A,"Corner")</f>
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
@@ -2920,10 +2799,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2">
-        <f>COUNTIFS(EventLog!C:C,"Goal",EventLog!D:D,"Team1", EventLog!E:E,"Half1")</f>
+        <f>COUNTIFS(EventLog!A:A,"Goal",EventLog!B:B,"Team1", EventLog!C:C,"Half1")</f>
         <v>1</v>
       </c>
       <c r="C11" s="2"/>
@@ -2931,10 +2810,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2">
-        <f>COUNTIFS(EventLog!C:C,"Goal",EventLog!D:D,"Team2", EventLog!E:E,"Half1")</f>
+        <f>COUNTIFS(EventLog!A:A,"Goal",EventLog!B:B,"Team2", EventLog!C:C,"Half1")</f>
         <v>1</v>
       </c>
       <c r="C12" s="2"/>
@@ -2948,10 +2827,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2">
-        <f>COUNTIFS(EventLog!C:C,"Goal",EventLog!D:D,"Team1", EventLog!E:E,"Half2")</f>
+        <f>COUNTIFS(EventLog!A:A,"Goal",EventLog!B:B,"Team1", EventLog!C:C,"Half2")</f>
         <v>1</v>
       </c>
       <c r="C14" s="2"/>
@@ -2959,10 +2838,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="2">
-        <f>COUNTIFS(EventLog!C:C,"Goal",EventLog!D:D,"Team2", EventLog!E:E,"Half2")</f>
+        <f>COUNTIFS(EventLog!A:A,"Goal",EventLog!B:B,"Team2", EventLog!C:C,"Half2")</f>
         <v>1</v>
       </c>
       <c r="C15" s="2"/>
@@ -2976,10 +2855,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2">
-        <f>COUNTIFS(EventLog!C:C,"Goal",G:G, "&lt;&gt;")</f>
+        <f>COUNTIFS(EventLog!A:A,"Goal",G:G, "&lt;&gt;")</f>
         <v>0</v>
       </c>
       <c r="C17" s="2"/>
@@ -2993,10 +2872,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2">
-        <f>COUNTIFS(EventLog!C:C,"Goal",H:H, "Head")</f>
+        <f>COUNTIFS(EventLog!A:A,"Goal",H:H, "Head")</f>
         <v>0</v>
       </c>
       <c r="C19" s="2"/>
@@ -3010,10 +2889,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2" t="b">
-        <f>IF(COUNTIFS(EventLog!C:C,"Goal",EventLog!E:E,"Half1",B:B,"&gt;0",B:B,"&lt;15"), TRUE,FALSE)</f>
+        <f>IF(COUNTIFS(EventLog!A:A,"Goal",EventLog!C:C,"Half1",B:B,"&gt;0",B:B,"&lt;15"), TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C21" s="2"/>
@@ -3021,10 +2900,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B22" s="2" t="b">
-        <f>IF(COUNTIFS(EventLog!C:C,"Goal",EventLog!E:E,"Half1",B:B,"&gt;15",B:B,"&lt;30"), TRUE,FALSE)</f>
+        <f>IF(COUNTIFS(EventLog!A:A,"Goal",EventLog!C:C,"Half1",B:B,"&gt;15",B:B,"&lt;30"), TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C22" s="2"/>
@@ -3038,10 +2917,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2" t="b">
-        <f>COUNTIFS(EventLog!C:C,"Match",EventLog!I:I,"stop")&gt;0</f>
+        <f>COUNTIFS(EventLog!A:A,"Match",EventLog!G:G,"stop")&gt;0</f>
         <v>0</v>
       </c>
       <c r="C24" s="2"/>
@@ -3049,10 +2928,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2" t="b">
-        <f>COUNTIFS(EventLog!C:C,"Half1",EventLog!I:I,"stop")&gt;0</f>
+        <f>COUNTIFS(EventLog!A:A,"Half1",EventLog!G:G,"stop")&gt;0</f>
         <v>1</v>
       </c>
       <c r="C25" s="2"/>
@@ -3066,22 +2945,22 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="2" t="b">
-        <f>0&lt;INDEX(EventLog!A:A,MATCH("Goal",EventLog!C:C,0))&lt;15</f>
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="B27" s="2" t="e">
+        <f>0&lt;INDEX(EventLog!#REF!,MATCH("Goal",EventLog!A:A,0))&lt;15</f>
+        <v>#REF!</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="2" t="b">
-        <f>AND(15&lt;INDEX(EventLog!A:A,MATCH("Goal",EventLog!C:C,0)),30&gt;INDEX(EventLog!A:A,MATCH("Goal",EventLog!C:C,0)))</f>
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="B28" s="2" t="e">
+        <f>AND(15&lt;INDEX(EventLog!#REF!,MATCH("Goal",EventLog!A:A,0)),30&gt;INDEX(EventLog!#REF!,MATCH("Goal",EventLog!A:A,0)))</f>
+        <v>#REF!</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="30"/>
@@ -3094,10 +2973,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f t="array" ref="B30">INDEX(EventLog!D:D,SMALL(IF(EventLog!C:C="Goal",ROW(EventLog!C:C),""),2))</f>
+        <f t="array" ref="B30">INDEX(EventLog!B:B,SMALL(IF(EventLog!A:A="Goal",ROW(EventLog!A:A),""),2))</f>
         <v>Team1</v>
       </c>
       <c r="C30" s="2"/>
@@ -3105,11 +2984,11 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="array" ref="B31">INDEX(EventLog!A:A,SMALL(IF(EventLog!C:C="Goal",ROW(EventLog!C:C),""),3))</f>
-        <v>52</v>
+        <v>97</v>
+      </c>
+      <c r="B31" s="2" t="e">
+        <f t="array" ref="B31">INDEX(EventLog!#REF!,SMALL(IF(EventLog!A:A="Goal",ROW(EventLog!A:A),""),3))</f>
+        <v>#REF!</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="30"/>
@@ -5288,7 +5167,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>

--- a/test/resources/AutoCalc_Soccer_EventLog.xlsx
+++ b/test/resources/AutoCalc_Soccer_EventLog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="18120" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="18120" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="EventType" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="OUT" sheetId="2" r:id="rId5"/>
     <sheet name="Help" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -261,12 +261,6 @@
     <t>EventType</t>
   </si>
   <si>
-    <t>MetaKey</t>
-  </si>
-  <si>
-    <t>MetaValue</t>
-  </si>
-  <si>
     <t>Red Card</t>
   </si>
   <si>
@@ -364,6 +358,12 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -769,9 +769,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1041,7 +1041,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1051,34 +1051,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>69</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1173,10 +1173,10 @@
         <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1254,15 +1254,15 @@
         <v>30</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickTop="1">
+    <row r="15" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>66</v>
@@ -1271,9 +1271,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>66</v>
@@ -1282,9 +1282,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>67</v>
@@ -1293,9 +1293,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>67</v>
@@ -1304,9 +1304,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>67</v>
@@ -1315,9 +1315,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15" thickBot="1">
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>67</v>
@@ -1326,7 +1326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15" thickTop="1">
+    <row r="21" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="35" t="s">
         <v>56</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>56</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>56</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>56</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>56</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15" thickBot="1">
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="36" t="s">
         <v>56</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15" thickTop="1">
+    <row r="27" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
         <v>40</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>40</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>40</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>40</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>40</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15" thickBot="1">
+    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="36" t="s">
         <v>40</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickTop="1">
+    <row r="33" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" s="35" t="s">
         <v>16</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>16</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>16</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>16</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>16</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="36" t="s">
         <v>16</v>
       </c>
@@ -1532,43 +1532,43 @@
         <v>67</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickTop="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B40" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="38" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -1576,13 +1576,13 @@
         <v>58</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1590,13 +1590,13 @@
         <v>59</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1604,13 +1604,13 @@
         <v>59</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8</v>
       </c>
@@ -1618,112 +1618,112 @@
         <v>60</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="38" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D47" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="B48" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="B49" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="11" t="s">
+      <c r="C50" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="B50" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="B51" s="38" t="s">
-        <v>76</v>
-      </c>
       <c r="C51" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1742,23 +1742,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="16.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="12" width="16.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="18" max="18" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>69</v>
       </c>
@@ -1775,10 +1775,10 @@
         <v>65</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H1" s="34"/>
       <c r="I1" s="2"/>
@@ -1791,7 +1791,7 @@
       <c r="P1" s="25"/>
       <c r="Q1" s="25"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1810,9 +1810,9 @@
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -1820,7 +1820,7 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3" s="34"/>
       <c r="I3" s="2"/>
@@ -1833,12 +1833,12 @@
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1847,12 +1847,12 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1861,7 +1861,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>30</v>
       </c>
@@ -1897,7 +1897,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1915,9 +1915,9 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -1933,7 +1933,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1957,12 +1957,12 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1971,12 +1971,12 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1985,7 +1985,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2045,7 +2045,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2069,12 +2069,12 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2083,12 +2083,12 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="2"/>
@@ -2097,16 +2097,16 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2115,7 +2115,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="34"/>
@@ -2125,7 +2125,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -2138,7 +2138,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2146,7 +2146,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
@@ -2158,7 +2158,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -2171,7 +2171,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -2184,7 +2184,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -2197,7 +2197,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -2210,7 +2210,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
@@ -2222,7 +2222,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -2235,7 +2235,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
@@ -2247,7 +2247,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -2260,7 +2260,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -2273,7 +2273,7 @@
       <c r="L32" s="34"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -2285,7 +2285,7 @@
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -2297,7 +2297,7 @@
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
@@ -2309,7 +2309,7 @@
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
@@ -2321,7 +2321,7 @@
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -2333,7 +2333,7 @@
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -2345,7 +2345,7 @@
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="3:12">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -2357,7 +2357,7 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="3:12">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -2369,7 +2369,7 @@
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
     </row>
-    <row r="41" spans="3:12">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -2381,7 +2381,7 @@
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -2393,7 +2393,7 @@
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -2405,7 +2405,7 @@
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -2417,7 +2417,7 @@
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -2429,7 +2429,7 @@
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
     </row>
-    <row r="46" spans="3:12">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -2441,7 +2441,7 @@
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
@@ -2453,7 +2453,7 @@
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
@@ -2465,7 +2465,7 @@
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
@@ -2477,7 +2477,7 @@
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
@@ -2489,7 +2489,7 @@
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -2501,7 +2501,7 @@
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="3:12">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -2513,7 +2513,7 @@
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
     </row>
-    <row r="53" spans="3:12">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -2525,7 +2525,7 @@
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
     </row>
-    <row r="54" spans="3:12">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -2537,7 +2537,7 @@
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
@@ -2549,7 +2549,7 @@
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
@@ -2560,7 +2560,7 @@
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
     </row>
-    <row r="58" spans="3:12">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
@@ -2572,7 +2572,7 @@
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
     </row>
-    <row r="59" spans="3:12">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
@@ -2584,7 +2584,7 @@
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
     </row>
-    <row r="60" spans="3:12">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
@@ -2595,7 +2595,7 @@
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
     </row>
-    <row r="61" spans="3:12">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
@@ -2606,7 +2606,7 @@
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
     </row>
-    <row r="62" spans="3:12">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
@@ -2617,7 +2617,7 @@
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
     </row>
-    <row r="63" spans="3:12">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
@@ -2628,7 +2628,7 @@
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
     </row>
-    <row r="64" spans="3:12">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
@@ -2639,7 +2639,7 @@
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
     </row>
-    <row r="65" spans="4:12">
+    <row r="65" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
@@ -2650,7 +2650,7 @@
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
     </row>
-    <row r="66" spans="4:12">
+    <row r="66" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
@@ -2661,7 +2661,7 @@
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
     </row>
-    <row r="67" spans="4:12">
+    <row r="67" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
@@ -2672,7 +2672,7 @@
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
     </row>
-    <row r="68" spans="4:12">
+    <row r="68" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
@@ -2702,37 +2702,37 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2">
         <f>COUNTIFS(EventLog!A:A,"Goal")</f>
@@ -2741,7 +2741,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>20</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>19</v>
       </c>
@@ -2763,15 +2763,15 @@
       <c r="C6" s="2"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2">
         <f>COUNTIFS(EventLog!A:A,"YellowCard")</f>
@@ -2780,9 +2780,9 @@
       <c r="C8" s="2"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2">
         <f>COUNTIFS(EventLog!A:A,"Corner")</f>
@@ -2791,15 +2791,15 @@
       <c r="C9" s="2"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2">
         <f>COUNTIFS(EventLog!A:A,"Goal",EventLog!B:B,"Team1", EventLog!C:C,"Half1")</f>
@@ -2808,9 +2808,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2">
         <f>COUNTIFS(EventLog!A:A,"Goal",EventLog!B:B,"Team2", EventLog!C:C,"Half1")</f>
@@ -2819,15 +2819,15 @@
       <c r="C12" s="2"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2">
         <f>COUNTIFS(EventLog!A:A,"Goal",EventLog!B:B,"Team1", EventLog!C:C,"Half2")</f>
@@ -2836,9 +2836,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="2">
         <f>COUNTIFS(EventLog!A:A,"Goal",EventLog!B:B,"Team2", EventLog!C:C,"Half2")</f>
@@ -2847,15 +2847,15 @@
       <c r="C15" s="2"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2">
         <f>COUNTIFS(EventLog!A:A,"Goal",G:G, "&lt;&gt;")</f>
@@ -2864,15 +2864,15 @@
       <c r="C17" s="2"/>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="2">
         <f>COUNTIFS(EventLog!A:A,"Goal",H:H, "Head")</f>
@@ -2881,15 +2881,15 @@
       <c r="C19" s="2"/>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="30"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="b">
         <f>IF(COUNTIFS(EventLog!A:A,"Goal",EventLog!C:C,"Half1",B:B,"&gt;0",B:B,"&lt;15"), TRUE,FALSE)</f>
@@ -2898,9 +2898,9 @@
       <c r="C21" s="2"/>
       <c r="D21" s="30"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="2" t="b">
         <f>IF(COUNTIFS(EventLog!A:A,"Goal",EventLog!C:C,"Half1",B:B,"&gt;15",B:B,"&lt;30"), TRUE,FALSE)</f>
@@ -2909,15 +2909,15 @@
       <c r="C22" s="2"/>
       <c r="D22" s="30"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="30"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2" t="b">
         <f>COUNTIFS(EventLog!A:A,"Match",EventLog!G:G,"stop")&gt;0</f>
@@ -2926,9 +2926,9 @@
       <c r="C24" s="2"/>
       <c r="D24" s="30"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25" s="2" t="b">
         <f>COUNTIFS(EventLog!A:A,"Half1",EventLog!G:G,"stop")&gt;0</f>
@@ -2937,15 +2937,15 @@
       <c r="C25" s="2"/>
       <c r="D25" s="30"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="30"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="2" t="e">
         <f>0&lt;INDEX(EventLog!#REF!,MATCH("Goal",EventLog!A:A,0))&lt;15</f>
@@ -2954,9 +2954,9 @@
       <c r="C27" s="2"/>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="e">
         <f>AND(15&lt;INDEX(EventLog!#REF!,MATCH("Goal",EventLog!A:A,0)),30&gt;INDEX(EventLog!#REF!,MATCH("Goal",EventLog!A:A,0)))</f>
@@ -2965,15 +2965,15 @@
       <c r="C28" s="2"/>
       <c r="D28" s="30"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="30"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="str">
         <f t="array" ref="B30">INDEX(EventLog!B:B,SMALL(IF(EventLog!A:A="Goal",ROW(EventLog!A:A),""),2))</f>
@@ -2982,9 +2982,9 @@
       <c r="C30" s="2"/>
       <c r="D30" s="30"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B31" s="2" t="e">
         <f t="array" ref="B31">INDEX(EventLog!#REF!,SMALL(IF(EventLog!A:A="Goal",ROW(EventLog!A:A),""),3))</f>
@@ -2993,13 +2993,13 @@
       <c r="C31" s="2"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
       <c r="D32" s="33"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3026,23 +3026,23 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.5" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="AA1" s="44"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="AA2" s="45"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D5" s="10">
         <v>3</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D6" s="10">
         <v>4</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D7" s="10">
         <v>5</v>
       </c>
@@ -3334,7 +3334,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="10">
         <v>6</v>
@@ -3367,7 +3367,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="10">
         <v>7</v>
@@ -3398,7 +3398,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="10">
         <v>8</v>
@@ -3429,7 +3429,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D11" s="10">
         <v>9</v>
       </c>
@@ -3449,7 +3449,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>31</v>
       </c>
@@ -3476,7 +3476,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>32</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>33</v>
       </c>
@@ -3530,7 +3530,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>34</v>
       </c>
@@ -3559,7 +3559,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>35</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>36</v>
       </c>
@@ -3617,7 +3617,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>37</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>38</v>
       </c>
@@ -3673,7 +3673,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>43</v>
       </c>
@@ -3700,7 +3700,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>44</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>45</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>46</v>
       </c>
@@ -3781,7 +3781,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>54</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D25" s="10">
         <v>23</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D26" s="10">
         <v>24</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D27" s="10">
         <v>25</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D28" s="10">
         <v>26</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D29" s="10">
         <v>27</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D30" s="10">
         <v>28</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -3946,7 +3946,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D32" s="10">
         <v>29</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="4:19">
+    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D33" s="10">
         <v>30</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="4:19">
+    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D34" s="10">
         <v>31</v>
       </c>
@@ -4006,7 +4006,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="4:19">
+    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D35" s="10">
         <v>32</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="4:19">
+    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D36" s="10">
         <v>33</v>
       </c>
@@ -4046,7 +4046,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="4:19">
+    <row r="37" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D37" s="10">
         <v>34</v>
       </c>
@@ -4066,7 +4066,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="4:19">
+    <row r="38" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D38" s="10">
         <v>35</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="4:19">
+    <row r="39" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D39" s="10">
         <v>36</v>
       </c>
@@ -4106,7 +4106,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="4:19">
+    <row r="40" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D40" s="10">
         <v>37</v>
       </c>
@@ -4126,7 +4126,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="4:19">
+    <row r="41" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D41" s="10">
         <v>38</v>
       </c>
@@ -4146,7 +4146,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="4:19">
+    <row r="42" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D42" s="10">
         <v>39</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="4:19">
+    <row r="43" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D43" s="10">
         <v>40</v>
       </c>
@@ -4186,7 +4186,7 @@
       <c r="R43" s="11"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="4:19">
+    <row r="44" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D44" s="10">
         <v>41</v>
       </c>
@@ -4206,7 +4206,7 @@
       <c r="R44" s="11"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="4:19">
+    <row r="45" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D45" s="10">
         <v>42</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="12"/>
     </row>
-    <row r="46" spans="4:19">
+    <row r="46" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D46" s="10">
         <v>43</v>
       </c>
@@ -4246,7 +4246,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="12"/>
     </row>
-    <row r="47" spans="4:19">
+    <row r="47" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D47" s="10">
         <v>44</v>
       </c>
@@ -4266,7 +4266,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="12"/>
     </row>
-    <row r="48" spans="4:19">
+    <row r="48" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D48" s="10">
         <v>45</v>
       </c>
@@ -4286,7 +4286,7 @@
       <c r="R48" s="11"/>
       <c r="S48" s="12"/>
     </row>
-    <row r="49" spans="4:19">
+    <row r="49" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D49" s="10">
         <v>46</v>
       </c>
@@ -4306,7 +4306,7 @@
       <c r="R49" s="11"/>
       <c r="S49" s="12"/>
     </row>
-    <row r="50" spans="4:19">
+    <row r="50" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D50" s="10">
         <v>47</v>
       </c>
@@ -4326,7 +4326,7 @@
       <c r="R50" s="11"/>
       <c r="S50" s="12"/>
     </row>
-    <row r="51" spans="4:19">
+    <row r="51" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D51" s="10">
         <v>48</v>
       </c>
@@ -4346,7 +4346,7 @@
       <c r="R51" s="11"/>
       <c r="S51" s="12"/>
     </row>
-    <row r="52" spans="4:19">
+    <row r="52" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D52" s="10">
         <v>49</v>
       </c>
@@ -4366,7 +4366,7 @@
       <c r="R52" s="11"/>
       <c r="S52" s="12"/>
     </row>
-    <row r="53" spans="4:19">
+    <row r="53" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D53" s="10">
         <v>50</v>
       </c>
@@ -4386,757 +4386,757 @@
       <c r="R53" s="11"/>
       <c r="S53" s="12"/>
     </row>
-    <row r="54" spans="4:19">
+    <row r="54" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D54" s="10">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="4:19">
+    <row r="55" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D55" s="10">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="4:19">
+    <row r="56" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D56" s="10">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="4:19">
+    <row r="57" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D57" s="10">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="4:19">
+    <row r="58" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D58" s="10">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="4:19">
+    <row r="59" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D59" s="10">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="4:19">
+    <row r="60" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D60" s="10">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="4:19">
+    <row r="61" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D61" s="10">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="4:19">
+    <row r="62" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D62" s="10">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="4:19">
+    <row r="63" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D63" s="10">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="4:19">
+    <row r="64" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D64" s="10">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="10">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="10">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="10">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="10">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="4:4">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="10">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="4:4">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="10">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="4:4">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="10">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="4:4">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="10">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="4:4">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="10">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="4:4">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="10">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="10">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="4:4">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="10">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="10">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="4:4">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="10">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="4:4">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="10">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="10">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="10">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="4:4">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="10">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="4:4">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="10">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="4:4">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="10">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="4:4">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="10">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="4:4">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="4:4">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="10">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="4:4">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="10">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="4:4">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="10">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="4:4">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="10">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="4:4">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="10">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="4:4">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="4:4">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="10">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="4:4">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="10">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="4:4">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="10">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="4:4">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="10">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="4:4">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="10">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="4:4">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="10">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="4:4">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="10">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="4:4">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="10">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="4:4">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="10">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="4:4">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="4:4">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="10">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="4:4">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="10">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="4:4">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="10">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="4:4">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="10">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="4:4">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="4:4">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="10">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="4:4">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="10">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="4:4">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="10">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="4:4">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="10">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="4:4">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="10">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="4:4">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="10">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="4:4">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="10">
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="4:4">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="10">
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="4:4">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="10">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="4:4">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="10">
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="4:4">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="10">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="4:4">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="10">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="4:4">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="10">
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="4:4">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="10">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="4:4">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="10">
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="4:4">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="10">
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="4:4">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="10">
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="4:4">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="10">
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="4:4">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="10">
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="4:4">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="10">
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="4:4">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="10">
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="4:4">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="10">
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="4:4">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="10">
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="4:4">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="10">
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="4:4">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="10">
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="4:4">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="10">
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="4:4">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="10">
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="4:4">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="10">
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="4:4">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="10">
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="4:4">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="10">
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="4:4">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="10">
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="4:4">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="10">
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="4:4">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="10">
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="4:4">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="10">
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="4:4">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="10">
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="4:4">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="10">
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="4:4">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="10">
         <v>142</v>
       </c>
     </row>
-    <row r="146" spans="4:4">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="10">
         <v>143</v>
       </c>
     </row>
-    <row r="147" spans="4:4">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="10">
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="4:4">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="10">
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="4:4">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="10">
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="4:4">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="10">
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="4:4">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="10">
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="4:4">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="10">
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="4:4">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="4:4">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="10">
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="4:4">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="10">
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="4:4">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="10">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="4:4">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="10">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="4:4">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="10">
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="4:4">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="10">
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="4:4">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="10">
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="4:4">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="10">
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="4:4">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="10">
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="4:4">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="10">
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="4:4">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="10">
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="4:4">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" s="10">
         <v>162</v>
       </c>
     </row>
-    <row r="166" spans="4:4">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="10">
         <v>163</v>
       </c>
     </row>
-    <row r="167" spans="4:4">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="10">
         <v>164</v>
       </c>
     </row>
-    <row r="168" spans="4:4">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" s="10">
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="4:4">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" s="10">
         <v>166</v>
       </c>
     </row>
-    <row r="170" spans="4:4">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" s="10">
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="4:4">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="10">
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="4:4">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="10">
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="4:4">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="10">
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="4:4">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="10">
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="4:4">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="10">
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="4:4">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" s="10">
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="4:4">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="10">
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="4:4">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" s="10">
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="4:4">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" s="10">
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="4:4">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" s="10">
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="4:4">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" s="10">
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="4:4">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" s="10">
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="4:4">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183" s="10">
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="4:4">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184" s="10">
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="4:4">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185" s="10">
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="4:4">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186" s="10">
         <v>183</v>
       </c>
     </row>
-    <row r="187" spans="4:4">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187" s="10">
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="4:4">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" s="10">
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="4:4">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" s="10">
         <v>186</v>
       </c>
     </row>
-    <row r="190" spans="4:4">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190" s="10">
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="4:4">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191" s="10">
         <v>188</v>
       </c>
     </row>
-    <row r="192" spans="4:4">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192" s="10">
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="4:4">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" s="10">
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="4:4">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" s="10">
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="4:4">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" s="10">
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="4:4">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" s="10">
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="4:4">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" s="10">
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="4:4">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" s="10">
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="4:4">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" s="10">
         <v>196</v>
       </c>
     </row>
-    <row r="200" spans="4:4">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" s="10">
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="4:4">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201" s="10">
         <v>198</v>
       </c>
     </row>
-    <row r="202" spans="4:4">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202" s="10">
         <v>199</v>
       </c>
     </row>
-    <row r="203" spans="4:4">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="4:4">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" s="10">
         <v>201</v>
       </c>
@@ -5172,15 +5172,15 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>lose</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>win</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
@@ -5246,15 +5246,15 @@
       <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>41</v>
       </c>
@@ -5280,7 +5280,7 @@
       <c r="P1" s="47"/>
       <c r="Q1" s="47"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
         <v>42</v>
@@ -5318,7 +5318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>30</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>30</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>30</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>30</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>30</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>30</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>30</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>30</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>30</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>30</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>30</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>30</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>30</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>30</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>30</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>30</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>30</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>30</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>30</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>30</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>30</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>30</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>30</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>30</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>30</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>30</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>30</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>30</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>30</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>30</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>30</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>30</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>30</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>30</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>30</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>30</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>30</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>30</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>30</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>30</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>30</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>30</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>30</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>30</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>30</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>30</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>30</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>30</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>30</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>30</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>30</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>30</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>30</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>30</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>30</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>30</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>30</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>30</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>30</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>30</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>30</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>30</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>30</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>30</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>30</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>30</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>30</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>30</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>30</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>30</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>30</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>30</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>30</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>30</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>30</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>30</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>30</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>30</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>30</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>30</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>30</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>30</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>30</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>30</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>30</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>30</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>30</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>30</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>30</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>30</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>30</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>30</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>30</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>30</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>30</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>30</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>30</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>30</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>30</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>30</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>30</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>30</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>30</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>30</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>30</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>30</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>30</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>30</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>30</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>30</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>30</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>30</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>30</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>30</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>30</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>30</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>30</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>30</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>30</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>30</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>30</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>30</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>30</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>30</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>30</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>30</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>30</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>30</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>30</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>30</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>30</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>30</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>30</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>30</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>30</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>30</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>30</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>30</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>30</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>30</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>30</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>30</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>30</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>30</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>30</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>30</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>30</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>30</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>30</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>30</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>30</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>30</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>30</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>30</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>30</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>30</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>30</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>30</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>30</v>
       </c>

--- a/test/resources/AutoCalc_Soccer_EventLog.xlsx
+++ b/test/resources/AutoCalc_Soccer_EventLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="18120" windowHeight="13890"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="18120" windowHeight="13890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EventType" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <author>vetal</author>
   </authors>
   <commentList>
-    <comment ref="A42" authorId="0">
+    <comment ref="A45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="109">
   <si>
     <t>Half 1</t>
   </si>
@@ -364,6 +364,18 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>AnyString</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Numeric(1,120)</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1053,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1049,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,25 +1273,25 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>70</v>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>19</v>
+        <v>106</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>20</v>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -1287,10 +1299,10 @@
         <v>70</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -1298,10 +1310,10 @@
         <v>70</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -1312,62 +1324,62 @@
         <v>67</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
+    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C22" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D22" s="36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+    <row r="23" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C24" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D24" s="35" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -1375,65 +1387,65 @@
         <v>56</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36" t="s">
+      <c r="D26" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C27" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>19</v>
+      <c r="D27" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C30" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>58</v>
+      <c r="D30" s="35" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -1441,65 +1453,65 @@
         <v>40</v>
       </c>
       <c r="C31" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="36" t="s">
+      <c r="D32" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C33" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>19</v>
+      <c r="D33" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C36" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>58</v>
+      <c r="D36" s="35" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,10 +1519,10 @@
         <v>16</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1521,208 +1533,241 @@
         <v>67</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="36" t="s">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C42" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D42" s="36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="38" t="s">
+    <row r="43" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="38" t="s">
         <v>57</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>7</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>58</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>7</v>
-      </c>
       <c r="B44" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>8</v>
-      </c>
       <c r="B45" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>7</v>
+      </c>
       <c r="B47" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8</v>
+      </c>
       <c r="B48" s="38" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>8</v>
+      </c>
       <c r="B49" s="38" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="38" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="38" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="38" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="38" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1</v>
-      </c>
       <c r="B55" s="38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C55" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D55" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1742,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,8 +1825,12 @@
       <c r="G1" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>105</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
